--- a/Human_co-infections.xlsx
+++ b/Human_co-infections.xlsx
@@ -563,7 +563,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -614,6 +614,14 @@
       <i/>
       <sz val="9"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -734,10 +742,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -769,17 +778,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -796,14 +799,17 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -823,23 +829,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1118,10 +1127,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J77"/>
+  <dimension ref="A1:M77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I79" sqref="I79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1130,18 +1139,18 @@
     <col min="7" max="7" width="57.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="76.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="91.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
     </row>
-    <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1172,8 +1181,9 @@
       <c r="J3" s="6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L3" s="31"/>
+    </row>
+    <row r="4" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>11</v>
       </c>
@@ -1195,11 +1205,12 @@
       </c>
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
-      <c r="J4" s="11" t="s">
+      <c r="J4" s="28" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L4" s="32"/>
+    </row>
+    <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>1967</v>
       </c>
@@ -1221,55 +1232,58 @@
       </c>
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
-      <c r="J5" s="11" t="s">
+      <c r="J5" s="28" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="23" t="s">
+      <c r="L5" s="32"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="25">
+      <c r="C6" s="24">
         <v>55</v>
       </c>
-      <c r="D6" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="25" t="s">
+      <c r="D6" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="27"/>
-      <c r="G6" s="29" t="s">
+      <c r="F6" s="26"/>
+      <c r="G6" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="29" t="s">
+      <c r="H6" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="29" t="s">
+      <c r="I6" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="J6" s="31" t="s">
+      <c r="J6" s="29" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="24"/>
+      <c r="L6" s="32"/>
+    </row>
+    <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="23"/>
       <c r="B7" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="32"/>
-    </row>
-    <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="30"/>
+      <c r="L7" s="32"/>
+    </row>
+    <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>2006</v>
       </c>
@@ -1293,11 +1307,11 @@
         <v>28</v>
       </c>
       <c r="I8" s="9"/>
-      <c r="J8" s="14" t="s">
+      <c r="J8" s="28" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>2006</v>
       </c>
@@ -1319,11 +1333,12 @@
       </c>
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
-      <c r="J9" s="11" t="s">
+      <c r="J9" s="28" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L9" s="32"/>
+    </row>
+    <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>2006</v>
       </c>
@@ -1345,11 +1360,12 @@
       </c>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
-      <c r="J10" s="11" t="s">
+      <c r="J10" s="28" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L10" s="32"/>
+    </row>
+    <row r="11" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
         <v>2006</v>
       </c>
@@ -1373,11 +1389,12 @@
         <v>39</v>
       </c>
       <c r="I11" s="9"/>
-      <c r="J11" s="14" t="s">
+      <c r="J11" s="28" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L11" s="32"/>
+    </row>
+    <row r="12" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
         <v>2006</v>
       </c>
@@ -1401,11 +1418,12 @@
         <v>42</v>
       </c>
       <c r="I12" s="9"/>
-      <c r="J12" s="14" t="s">
+      <c r="J12" s="28" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L12" s="32"/>
+    </row>
+    <row r="13" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
         <v>2007</v>
       </c>
@@ -1427,11 +1445,12 @@
       </c>
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
-      <c r="J13" s="11" t="s">
+      <c r="J13" s="28" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L13" s="32"/>
+    </row>
+    <row r="14" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7">
         <v>2007</v>
       </c>
@@ -1453,11 +1472,12 @@
       </c>
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
-      <c r="J14" s="11" t="s">
+      <c r="J14" s="28" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L14" s="32"/>
+    </row>
+    <row r="15" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>46</v>
       </c>
@@ -1479,11 +1499,12 @@
       </c>
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
-      <c r="J15" s="11" t="s">
+      <c r="J15" s="28" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L15" s="32"/>
+    </row>
+    <row r="16" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7">
         <v>2008</v>
       </c>
@@ -1507,11 +1528,12 @@
         <v>49</v>
       </c>
       <c r="I16" s="9"/>
-      <c r="J16" s="14" t="s">
+      <c r="J16" s="28" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L16" s="32"/>
+    </row>
+    <row r="17" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7">
         <v>2009</v>
       </c>
@@ -1533,11 +1555,12 @@
       </c>
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>
-      <c r="J17" s="11" t="s">
+      <c r="J17" s="28" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L17" s="32"/>
+    </row>
+    <row r="18" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7">
         <v>2009</v>
       </c>
@@ -1558,14 +1581,15 @@
         <v>54</v>
       </c>
       <c r="H18" s="10"/>
-      <c r="I18" s="15" t="s">
+      <c r="I18" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="J18" s="11" t="s">
+      <c r="J18" s="28" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L18" s="32"/>
+    </row>
+    <row r="19" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7">
         <v>2010</v>
       </c>
@@ -1587,11 +1611,12 @@
       </c>
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
-      <c r="J19" s="11" t="s">
+      <c r="J19" s="28" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L19" s="32"/>
+    </row>
+    <row r="20" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7">
         <v>2010</v>
       </c>
@@ -1615,11 +1640,12 @@
       <c r="I20" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="J20" s="14" t="s">
+      <c r="J20" s="28" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L20" s="32"/>
+    </row>
+    <row r="21" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7">
         <v>2010</v>
       </c>
@@ -1641,11 +1667,12 @@
       </c>
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
-      <c r="J21" s="11" t="s">
+      <c r="J21" s="28" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L21" s="32"/>
+    </row>
+    <row r="22" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7">
         <v>2010</v>
       </c>
@@ -1671,11 +1698,12 @@
       <c r="I22" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="J22" s="14" t="s">
+      <c r="J22" s="28" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L22" s="32"/>
+    </row>
+    <row r="23" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7">
         <v>2011</v>
       </c>
@@ -1697,11 +1725,12 @@
       </c>
       <c r="H23" s="9"/>
       <c r="I23" s="9"/>
-      <c r="J23" s="11" t="s">
+      <c r="J23" s="28" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L23" s="32"/>
+    </row>
+    <row r="24" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7">
         <v>2011</v>
       </c>
@@ -1723,11 +1752,12 @@
       </c>
       <c r="H24" s="9"/>
       <c r="I24" s="9"/>
-      <c r="J24" s="11" t="s">
+      <c r="J24" s="28" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L24" s="32"/>
+    </row>
+    <row r="25" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="7">
         <v>2011</v>
       </c>
@@ -1749,11 +1779,12 @@
       </c>
       <c r="H25" s="9"/>
       <c r="I25" s="9"/>
-      <c r="J25" s="11" t="s">
+      <c r="J25" s="28" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L25" s="32"/>
+    </row>
+    <row r="26" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="7">
         <v>2011</v>
       </c>
@@ -1775,11 +1806,12 @@
       </c>
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
-      <c r="J26" s="11" t="s">
+      <c r="J26" s="28" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L26" s="32"/>
+    </row>
+    <row r="27" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>69</v>
       </c>
@@ -1801,11 +1833,12 @@
       </c>
       <c r="H27" s="9"/>
       <c r="I27" s="9"/>
-      <c r="J27" s="11" t="s">
+      <c r="J27" s="28" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L27" s="32"/>
+    </row>
+    <row r="28" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7">
         <v>2012</v>
       </c>
@@ -1827,11 +1860,12 @@
       </c>
       <c r="H28" s="9"/>
       <c r="I28" s="9"/>
-      <c r="J28" s="11" t="s">
+      <c r="J28" s="28" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L28" s="32"/>
+    </row>
+    <row r="29" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="7">
         <v>2013</v>
       </c>
@@ -1853,11 +1887,12 @@
       </c>
       <c r="H29" s="9"/>
       <c r="I29" s="9"/>
-      <c r="J29" s="11" t="s">
+      <c r="J29" s="28" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L29" s="32"/>
+    </row>
+    <row r="30" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
         <v>75</v>
       </c>
@@ -1879,11 +1914,12 @@
       </c>
       <c r="H30" s="9"/>
       <c r="I30" s="9"/>
-      <c r="J30" s="11" t="s">
+      <c r="J30" s="28" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L30" s="32"/>
+    </row>
+    <row r="31" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
         <v>75</v>
       </c>
@@ -1905,11 +1941,12 @@
       </c>
       <c r="H31" s="9"/>
       <c r="I31" s="9"/>
-      <c r="J31" s="11" t="s">
+      <c r="J31" s="28" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L31" s="32"/>
+    </row>
+    <row r="32" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
         <v>75</v>
       </c>
@@ -1931,11 +1968,12 @@
       </c>
       <c r="H32" s="9"/>
       <c r="I32" s="9"/>
-      <c r="J32" s="11" t="s">
+      <c r="J32" s="28" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L32" s="32"/>
+    </row>
+    <row r="33" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="7">
         <v>2014</v>
       </c>
@@ -1959,11 +1997,12 @@
       <c r="I33" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="J33" s="14" t="s">
+      <c r="J33" s="28" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L33" s="32"/>
+    </row>
+    <row r="34" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="7">
         <v>2014</v>
       </c>
@@ -1985,11 +2024,12 @@
       </c>
       <c r="H34" s="9"/>
       <c r="I34" s="9"/>
-      <c r="J34" s="11" t="s">
+      <c r="J34" s="28" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L34" s="32"/>
+    </row>
+    <row r="35" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="7">
         <v>2014</v>
       </c>
@@ -2011,55 +2051,57 @@
       </c>
       <c r="H35" s="9"/>
       <c r="I35" s="9"/>
-      <c r="J35" s="11" t="s">
+      <c r="J35" s="28" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="23" t="s">
+      <c r="L35" s="32"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="B36" s="25" t="s">
+      <c r="B36" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="C36" s="25">
+      <c r="C36" s="24">
         <v>7</v>
       </c>
-      <c r="D36" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="E36" s="25" t="s">
+      <c r="D36" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E36" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="F36" s="27"/>
-      <c r="G36" s="29" t="s">
+      <c r="F36" s="26"/>
+      <c r="G36" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="H36" s="13" t="s">
+      <c r="H36" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="I36" s="29" t="s">
+      <c r="I36" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="J36" s="31" t="s">
+      <c r="J36" s="29" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="24"/>
-      <c r="B37" s="26"/>
-      <c r="C37" s="26"/>
-      <c r="D37" s="26"/>
-      <c r="E37" s="26"/>
-      <c r="F37" s="28"/>
-      <c r="G37" s="30"/>
+      <c r="L36" s="32"/>
+    </row>
+    <row r="37" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="23"/>
+      <c r="B37" s="25"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="25"/>
+      <c r="E37" s="25"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="21"/>
       <c r="H37" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="I37" s="30"/>
-      <c r="J37" s="32"/>
-    </row>
-    <row r="38" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I37" s="21"/>
+      <c r="J37" s="30"/>
+    </row>
+    <row r="38" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="7">
         <v>2015</v>
       </c>
@@ -2081,11 +2123,12 @@
       </c>
       <c r="H38" s="9"/>
       <c r="I38" s="9"/>
-      <c r="J38" s="11" t="s">
+      <c r="J38" s="28" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L38" s="32"/>
+    </row>
+    <row r="39" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="7">
         <v>2015</v>
       </c>
@@ -2109,11 +2152,12 @@
         <v>99</v>
       </c>
       <c r="I39" s="9"/>
-      <c r="J39" s="14" t="s">
+      <c r="J39" s="28" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L39" s="32"/>
+    </row>
+    <row r="40" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
         <v>101</v>
       </c>
@@ -2137,11 +2181,12 @@
       <c r="I40" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="J40" s="14" t="s">
+      <c r="J40" s="28" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L40" s="32"/>
+    </row>
+    <row r="41" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="7" t="s">
         <v>101</v>
       </c>
@@ -2165,11 +2210,12 @@
       <c r="I41" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="J41" s="14" t="s">
+      <c r="J41" s="28" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L41" s="32"/>
+    </row>
+    <row r="42" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
         <v>101</v>
       </c>
@@ -2193,11 +2239,12 @@
       <c r="I42" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="J42" s="14" t="s">
+      <c r="J42" s="28" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L42" s="32"/>
+    </row>
+    <row r="43" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="7">
         <v>2016</v>
       </c>
@@ -2223,37 +2270,39 @@
       <c r="I43" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="J43" s="14" t="s">
+      <c r="J43" s="28" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="16">
+      <c r="L43" s="32"/>
+    </row>
+    <row r="44" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="14">
         <v>2016</v>
       </c>
-      <c r="B44" s="17" t="s">
+      <c r="B44" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C44" s="17">
-        <v>13</v>
-      </c>
-      <c r="D44" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E44" s="17" t="s">
+      <c r="C44" s="15">
+        <v>13</v>
+      </c>
+      <c r="D44" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E44" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F44" s="17"/>
-      <c r="G44" s="18" t="s">
+      <c r="F44" s="15"/>
+      <c r="G44" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="H44" s="18"/>
-      <c r="I44" s="19"/>
-      <c r="J44" s="20" t="s">
+      <c r="H44" s="16"/>
+      <c r="I44" s="17"/>
+      <c r="J44" s="33" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L44" s="32"/>
+    </row>
+    <row r="45" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="7">
         <v>2006</v>
       </c>
@@ -2277,11 +2326,11 @@
       </c>
       <c r="H45" s="9"/>
       <c r="I45" s="9"/>
-      <c r="J45" s="11" t="s">
+      <c r="J45" s="28" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="7">
         <v>2006</v>
       </c>
@@ -2304,40 +2353,40 @@
         <v>38</v>
       </c>
       <c r="H46" s="10"/>
-      <c r="I46" s="15"/>
-      <c r="J46" s="11" t="s">
+      <c r="I46" s="13"/>
+      <c r="J46" s="28" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="16">
+    <row r="47" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="14">
         <v>2011</v>
       </c>
-      <c r="B47" s="17" t="s">
+      <c r="B47" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C47" s="17">
+      <c r="C47" s="15">
         <v>1</v>
       </c>
-      <c r="D47" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E47" s="17" t="s">
+      <c r="D47" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E47" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="F47" s="17" t="s">
+      <c r="F47" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="G47" s="18" t="s">
+      <c r="G47" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="H47" s="21"/>
-      <c r="I47" s="21"/>
-      <c r="J47" s="20" t="s">
+      <c r="H47" s="18"/>
+      <c r="I47" s="18"/>
+      <c r="J47" s="33" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="7">
         <v>2014</v>
       </c>
@@ -2359,11 +2408,11 @@
       </c>
       <c r="H48" s="9"/>
       <c r="I48" s="9"/>
-      <c r="J48" s="11" t="s">
+      <c r="J48" s="28" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="7">
         <v>2015</v>
       </c>
@@ -2385,11 +2434,11 @@
       </c>
       <c r="H49" s="9"/>
       <c r="I49" s="9"/>
-      <c r="J49" s="11" t="s">
+      <c r="J49" s="28" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="7">
         <v>2015</v>
       </c>
@@ -2411,11 +2460,11 @@
       </c>
       <c r="H50" s="9"/>
       <c r="I50" s="9"/>
-      <c r="J50" s="11" t="s">
+      <c r="J50" s="28" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="7" t="s">
         <v>101</v>
       </c>
@@ -2439,11 +2488,11 @@
       <c r="I51" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="J51" s="14" t="s">
+      <c r="J51" s="28" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="7" t="s">
         <v>101</v>
       </c>
@@ -2467,11 +2516,11 @@
       <c r="I52" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="J52" s="14" t="s">
+      <c r="J52" s="28" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="7">
         <v>2016</v>
       </c>
@@ -2495,11 +2544,12 @@
         <v>125</v>
       </c>
       <c r="I53" s="9"/>
-      <c r="J53" s="14" t="s">
+      <c r="J53" s="28" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="54" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M53" s="32"/>
+    </row>
+    <row r="54" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="7">
         <v>2016</v>
       </c>
@@ -2521,11 +2571,12 @@
       </c>
       <c r="H54" s="9"/>
       <c r="I54" s="9"/>
-      <c r="J54" s="11" t="s">
+      <c r="J54" s="28" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="55" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M54" s="32"/>
+    </row>
+    <row r="55" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="7">
         <v>2016</v>
       </c>
@@ -2547,11 +2598,12 @@
       </c>
       <c r="H55" s="9"/>
       <c r="I55" s="9"/>
-      <c r="J55" s="11" t="s">
+      <c r="J55" s="28" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="56" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M55" s="32"/>
+    </row>
+    <row r="56" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="7">
         <v>2016</v>
       </c>
@@ -2575,11 +2627,12 @@
         <v>132</v>
       </c>
       <c r="I56" s="9"/>
-      <c r="J56" s="14" t="s">
+      <c r="J56" s="28" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="57" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M56" s="32"/>
+    </row>
+    <row r="57" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="7">
         <v>2016</v>
       </c>
@@ -2605,11 +2658,12 @@
       <c r="I57" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="J57" s="14" t="s">
+      <c r="J57" s="28" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="58" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M57" s="32"/>
+    </row>
+    <row r="58" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="7">
         <v>2016</v>
       </c>
@@ -2635,43 +2689,45 @@
       <c r="I58" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="J58" s="14" t="s">
+      <c r="J58" s="28" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="59" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="16">
+      <c r="M58" s="32"/>
+    </row>
+    <row r="59" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="14">
         <v>2016</v>
       </c>
-      <c r="B59" s="17" t="s">
+      <c r="B59" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="C59" s="17">
+      <c r="C59" s="15">
         <v>1</v>
       </c>
-      <c r="D59" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E59" s="17" t="s">
+      <c r="D59" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E59" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="F59" s="17" t="s">
+      <c r="F59" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="G59" s="18" t="s">
+      <c r="G59" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="H59" s="18" t="s">
+      <c r="H59" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="I59" s="18" t="s">
+      <c r="I59" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="J59" s="17" t="s">
+      <c r="J59" s="34" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="60" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M59" s="32"/>
+    </row>
+    <row r="60" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="7">
         <v>2014</v>
       </c>
@@ -2695,11 +2751,12 @@
         <v>147</v>
       </c>
       <c r="I60" s="9"/>
-      <c r="J60" s="14" t="s">
+      <c r="J60" s="28" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="61" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M60" s="32"/>
+    </row>
+    <row r="61" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="7">
         <v>2014</v>
       </c>
@@ -2721,11 +2778,12 @@
       </c>
       <c r="H61" s="9"/>
       <c r="I61" s="9"/>
-      <c r="J61" s="11" t="s">
+      <c r="J61" s="28" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="62" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M61" s="32"/>
+    </row>
+    <row r="62" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="7" t="s">
         <v>101</v>
       </c>
@@ -2749,11 +2807,12 @@
       <c r="I62" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="J62" s="14" t="s">
+      <c r="J62" s="28" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="63" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M62" s="32"/>
+    </row>
+    <row r="63" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="7" t="s">
         <v>101</v>
       </c>
@@ -2777,11 +2836,12 @@
       <c r="I63" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="J63" s="14" t="s">
+      <c r="J63" s="28" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="64" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M63" s="32"/>
+    </row>
+    <row r="64" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="7">
         <v>2016</v>
       </c>
@@ -2805,11 +2865,12 @@
       <c r="I64" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="J64" s="14" t="s">
+      <c r="J64" s="28" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="65" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M64" s="32"/>
+    </row>
+    <row r="65" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="7">
         <v>2016</v>
       </c>
@@ -2833,11 +2894,11 @@
         <v>152</v>
       </c>
       <c r="I65" s="10"/>
-      <c r="J65" s="14" t="s">
+      <c r="J65" s="28" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="7">
         <v>2016</v>
       </c>
@@ -2859,37 +2920,38 @@
       </c>
       <c r="H66" s="10"/>
       <c r="I66" s="10"/>
-      <c r="J66" s="14" t="s">
+      <c r="J66" s="28" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="67" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="16">
+    <row r="67" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="14">
         <v>2016</v>
       </c>
-      <c r="B67" s="17" t="s">
+      <c r="B67" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="C67" s="17">
+      <c r="C67" s="15">
         <v>1</v>
       </c>
-      <c r="D67" s="17" t="s">
+      <c r="D67" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E67" s="17" t="s">
+      <c r="E67" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="F67" s="21"/>
-      <c r="G67" s="18" t="s">
+      <c r="F67" s="18"/>
+      <c r="G67" s="16" t="s">
         <v>155</v>
       </c>
-      <c r="H67" s="21"/>
-      <c r="I67" s="21"/>
-      <c r="J67" s="20" t="s">
+      <c r="H67" s="18"/>
+      <c r="I67" s="18"/>
+      <c r="J67" s="33" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="68" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M67" s="32"/>
+    </row>
+    <row r="68" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="7" t="s">
         <v>101</v>
       </c>
@@ -2915,11 +2977,11 @@
       <c r="I68" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="J68" s="14" t="s">
+      <c r="J68" s="28" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="69" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="7" t="s">
         <v>101</v>
       </c>
@@ -2945,11 +3007,11 @@
       <c r="I69" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="J69" s="14" t="s">
+      <c r="J69" s="28" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="70" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="7">
         <v>2016</v>
       </c>
@@ -2973,11 +3035,11 @@
       </c>
       <c r="H70" s="9"/>
       <c r="I70" s="9"/>
-      <c r="J70" s="11" t="s">
+      <c r="J70" s="28" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="71" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="7">
         <v>2016</v>
       </c>
@@ -3003,41 +3065,41 @@
       <c r="I71" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="J71" s="14" t="s">
+      <c r="J71" s="28" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="16">
+    <row r="72" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="14">
         <v>2016</v>
       </c>
-      <c r="B72" s="17" t="s">
+      <c r="B72" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="C72" s="17">
+      <c r="C72" s="15">
         <v>4</v>
       </c>
-      <c r="D72" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E72" s="17" t="s">
+      <c r="D72" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E72" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F72" s="17" t="s">
+      <c r="F72" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="G72" s="18" t="s">
+      <c r="G72" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="H72" s="18" t="s">
+      <c r="H72" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="I72" s="18"/>
-      <c r="J72" s="22" t="s">
+      <c r="I72" s="16"/>
+      <c r="J72" s="33" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="7">
         <v>2011</v>
       </c>
@@ -3059,11 +3121,11 @@
       </c>
       <c r="H73" s="9"/>
       <c r="I73" s="9"/>
-      <c r="J73" s="11" t="s">
+      <c r="J73" s="28" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="74" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="7">
         <v>2011</v>
       </c>
@@ -3085,37 +3147,37 @@
       </c>
       <c r="H74" s="9"/>
       <c r="I74" s="9"/>
-      <c r="J74" s="11" t="s">
+      <c r="J74" s="28" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="16">
+    <row r="75" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="14">
         <v>2011</v>
       </c>
-      <c r="B75" s="17" t="s">
+      <c r="B75" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C75" s="17">
+      <c r="C75" s="15">
         <v>1</v>
       </c>
-      <c r="D75" s="17" t="s">
+      <c r="D75" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E75" s="17" t="s">
+      <c r="E75" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="F75" s="21"/>
-      <c r="G75" s="18" t="s">
+      <c r="F75" s="18"/>
+      <c r="G75" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="H75" s="21"/>
-      <c r="I75" s="21"/>
-      <c r="J75" s="20" t="s">
+      <c r="H75" s="18"/>
+      <c r="I75" s="18"/>
+      <c r="J75" s="33" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="76" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="7">
         <v>2014</v>
       </c>
@@ -3137,27 +3199,17 @@
       </c>
       <c r="H76" s="9"/>
       <c r="I76" s="9"/>
-      <c r="J76" s="11" t="s">
+      <c r="J76" s="28" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77" s="33" t="s">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A77" s="19" t="s">
         <v>164</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="I36:I37"/>
-    <mergeCell ref="J36:J37"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="E36:E37"/>
     <mergeCell ref="F36:F37"/>
     <mergeCell ref="G36:G37"/>
     <mergeCell ref="A6:A7"/>
@@ -3166,8 +3218,91 @@
     <mergeCell ref="E6:E7"/>
     <mergeCell ref="F6:F7"/>
     <mergeCell ref="G6:G7"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="I36:I37"/>
+    <mergeCell ref="J36:J37"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="J4" r:id="rId1"/>
+    <hyperlink ref="J5" r:id="rId2"/>
+    <hyperlink ref="J6:J7" r:id="rId3" display="[40]"/>
+    <hyperlink ref="J8" r:id="rId4"/>
+    <hyperlink ref="J9" r:id="rId5"/>
+    <hyperlink ref="J10" r:id="rId6"/>
+    <hyperlink ref="J11" r:id="rId7"/>
+    <hyperlink ref="J12" r:id="rId8"/>
+    <hyperlink ref="J13" r:id="rId9"/>
+    <hyperlink ref="J14" r:id="rId10"/>
+    <hyperlink ref="J15" r:id="rId11"/>
+    <hyperlink ref="J16" r:id="rId12"/>
+    <hyperlink ref="J17" r:id="rId13"/>
+    <hyperlink ref="J19" r:id="rId14"/>
+    <hyperlink ref="J18" r:id="rId15"/>
+    <hyperlink ref="J20" r:id="rId16"/>
+    <hyperlink ref="J22" r:id="rId17"/>
+    <hyperlink ref="J21" r:id="rId18"/>
+    <hyperlink ref="J23" r:id="rId19"/>
+    <hyperlink ref="J24" r:id="rId20"/>
+    <hyperlink ref="J25" r:id="rId21"/>
+    <hyperlink ref="J26" r:id="rId22"/>
+    <hyperlink ref="J27" r:id="rId23"/>
+    <hyperlink ref="J28" r:id="rId24"/>
+    <hyperlink ref="J29" r:id="rId25"/>
+    <hyperlink ref="J30" r:id="rId26"/>
+    <hyperlink ref="J31" r:id="rId27"/>
+    <hyperlink ref="J32" r:id="rId28"/>
+    <hyperlink ref="J33" r:id="rId29"/>
+    <hyperlink ref="J34" r:id="rId30"/>
+    <hyperlink ref="J35" r:id="rId31"/>
+    <hyperlink ref="J36:J37" r:id="rId32" display="[57]"/>
+    <hyperlink ref="J38" r:id="rId33"/>
+    <hyperlink ref="J39" r:id="rId34"/>
+    <hyperlink ref="J40" r:id="rId35"/>
+    <hyperlink ref="J41" r:id="rId36"/>
+    <hyperlink ref="J42" r:id="rId37"/>
+    <hyperlink ref="J43" r:id="rId38"/>
+    <hyperlink ref="J44" r:id="rId39"/>
+    <hyperlink ref="J45" r:id="rId40"/>
+    <hyperlink ref="J46" r:id="rId41"/>
+    <hyperlink ref="J47" r:id="rId42"/>
+    <hyperlink ref="J48" r:id="rId43"/>
+    <hyperlink ref="J49" r:id="rId44"/>
+    <hyperlink ref="J50" r:id="rId45"/>
+    <hyperlink ref="J51" r:id="rId46"/>
+    <hyperlink ref="J52" r:id="rId47"/>
+    <hyperlink ref="J53" r:id="rId48"/>
+    <hyperlink ref="J54" r:id="rId49" location="html_fulltext"/>
+    <hyperlink ref="J55" r:id="rId50"/>
+    <hyperlink ref="J56" r:id="rId51"/>
+    <hyperlink ref="J57" r:id="rId52"/>
+    <hyperlink ref="J58" r:id="rId53"/>
+    <hyperlink ref="J59" r:id="rId54"/>
+    <hyperlink ref="J66" r:id="rId55"/>
+    <hyperlink ref="J65" r:id="rId56"/>
+    <hyperlink ref="J67" r:id="rId57"/>
+    <hyperlink ref="J62" r:id="rId58"/>
+    <hyperlink ref="J63" r:id="rId59"/>
+    <hyperlink ref="J64" r:id="rId60"/>
+    <hyperlink ref="J60" r:id="rId61"/>
+    <hyperlink ref="J61" r:id="rId62"/>
+    <hyperlink ref="J68" r:id="rId63"/>
+    <hyperlink ref="J69" r:id="rId64"/>
+    <hyperlink ref="J75" r:id="rId65"/>
+    <hyperlink ref="J73" r:id="rId66"/>
+    <hyperlink ref="J74" r:id="rId67"/>
+    <hyperlink ref="J76" r:id="rId68"/>
+    <hyperlink ref="J70" r:id="rId69"/>
+    <hyperlink ref="J72" r:id="rId70"/>
+    <hyperlink ref="J71" r:id="rId71"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId72"/>
 </worksheet>
 </file>